--- a/data/trans_orig/Q57-Provincia-trans_orig.xlsx
+++ b/data/trans_orig/Q57-Provincia-trans_orig.xlsx
@@ -608,7 +608,7 @@
         <v>7.425687505304338</v>
       </c>
       <c r="D4" s="5" t="n">
-        <v>7.975261171621067</v>
+        <v>7.97526117162107</v>
       </c>
       <c r="E4" s="5" t="n">
         <v>7.22715899776192</v>
@@ -631,22 +631,22 @@
         </is>
       </c>
       <c r="C5" s="5" t="n">
-        <v>7.184582881920783</v>
+        <v>7.183980434368613</v>
       </c>
       <c r="D5" s="5" t="n">
-        <v>7.875212585242434</v>
+        <v>7.861522901800789</v>
       </c>
       <c r="E5" s="5" t="n">
-        <v>6.954656400814025</v>
+        <v>6.958606785031934</v>
       </c>
       <c r="F5" s="5" t="n">
-        <v>7.80578008908256</v>
+        <v>7.808967265293082</v>
       </c>
       <c r="G5" s="5" t="n">
-        <v>7.150521031589094</v>
+        <v>7.152988321053737</v>
       </c>
       <c r="H5" s="5" t="n">
-        <v>7.870738136949743</v>
+        <v>7.869646929217626</v>
       </c>
     </row>
     <row r="6">
@@ -657,22 +657,22 @@
         </is>
       </c>
       <c r="C6" s="5" t="n">
-        <v>7.655096752941822</v>
+        <v>7.654127080683825</v>
       </c>
       <c r="D6" s="5" t="n">
-        <v>8.073761657713684</v>
+        <v>8.068803076331651</v>
       </c>
       <c r="E6" s="5" t="n">
-        <v>7.43144547560162</v>
+        <v>7.452454463136068</v>
       </c>
       <c r="F6" s="5" t="n">
-        <v>7.96785054180925</v>
+        <v>7.972329338820902</v>
       </c>
       <c r="G6" s="5" t="n">
-        <v>7.490218075934749</v>
+        <v>7.486825924687039</v>
       </c>
       <c r="H6" s="5" t="n">
-        <v>7.997616422796288</v>
+        <v>7.997012887600021</v>
       </c>
     </row>
     <row r="7">
@@ -690,19 +690,19 @@
         <v>7.893393915581716</v>
       </c>
       <c r="D7" s="5" t="n">
-        <v>8.985319867390185</v>
+        <v>8.985319867390187</v>
       </c>
       <c r="E7" s="5" t="n">
         <v>7.849189731466074</v>
       </c>
       <c r="F7" s="5" t="n">
-        <v>8.819015061651383</v>
+        <v>8.819015061651381</v>
       </c>
       <c r="G7" s="5" t="n">
         <v>7.870819617870417</v>
       </c>
       <c r="H7" s="5" t="n">
-        <v>8.901238481052252</v>
+        <v>8.901238481052248</v>
       </c>
     </row>
     <row r="8">
@@ -713,22 +713,22 @@
         </is>
       </c>
       <c r="C8" s="5" t="n">
-        <v>7.770798172231888</v>
+        <v>7.769326434396925</v>
       </c>
       <c r="D8" s="5" t="n">
-        <v>8.821781783807463</v>
+        <v>8.833456514442071</v>
       </c>
       <c r="E8" s="5" t="n">
-        <v>7.723106990220158</v>
+        <v>7.722241386906719</v>
       </c>
       <c r="F8" s="5" t="n">
-        <v>8.703087183442964</v>
+        <v>8.701802688555937</v>
       </c>
       <c r="G8" s="5" t="n">
-        <v>7.786360096130302</v>
+        <v>7.785343056210416</v>
       </c>
       <c r="H8" s="5" t="n">
-        <v>8.807368301568449</v>
+        <v>8.806964992486035</v>
       </c>
     </row>
     <row r="9">
@@ -739,22 +739,22 @@
         </is>
       </c>
       <c r="C9" s="5" t="n">
-        <v>8.010346127013284</v>
+        <v>8.027221987361274</v>
       </c>
       <c r="D9" s="5" t="n">
-        <v>9.140349899060887</v>
+        <v>9.14697645347332</v>
       </c>
       <c r="E9" s="5" t="n">
-        <v>7.973636864202925</v>
+        <v>7.973684146999501</v>
       </c>
       <c r="F9" s="5" t="n">
-        <v>8.928212365840468</v>
+        <v>8.929587842096007</v>
       </c>
       <c r="G9" s="5" t="n">
-        <v>7.966719671526779</v>
+        <v>7.955175383398968</v>
       </c>
       <c r="H9" s="5" t="n">
-        <v>8.992999761835465</v>
+        <v>8.984949498308177</v>
       </c>
     </row>
     <row r="10">
@@ -772,7 +772,7 @@
         <v>7.993953753673702</v>
       </c>
       <c r="D10" s="5" t="n">
-        <v>7.97955377097202</v>
+        <v>7.979553770972021</v>
       </c>
       <c r="E10" s="5" t="n">
         <v>7.741835256830906</v>
@@ -795,22 +795,22 @@
         </is>
       </c>
       <c r="C11" s="5" t="n">
-        <v>7.881178379233906</v>
+        <v>7.877702583496919</v>
       </c>
       <c r="D11" s="5" t="n">
-        <v>7.771141692116486</v>
+        <v>7.739860433601719</v>
       </c>
       <c r="E11" s="5" t="n">
-        <v>7.603630610972422</v>
+        <v>7.612699593536893</v>
       </c>
       <c r="F11" s="5" t="n">
-        <v>7.648692859607935</v>
+        <v>7.645646171900477</v>
       </c>
       <c r="G11" s="5" t="n">
-        <v>7.777131112360819</v>
+        <v>7.773996085673376</v>
       </c>
       <c r="H11" s="5" t="n">
-        <v>7.770854923650933</v>
+        <v>7.748222183578152</v>
       </c>
     </row>
     <row r="12">
@@ -821,22 +821,22 @@
         </is>
       </c>
       <c r="C12" s="5" t="n">
-        <v>8.10453272179145</v>
+        <v>8.100012746399855</v>
       </c>
       <c r="D12" s="5" t="n">
-        <v>8.18551364394744</v>
+        <v>8.185333762751995</v>
       </c>
       <c r="E12" s="5" t="n">
-        <v>7.882172025480056</v>
+        <v>7.887002634622053</v>
       </c>
       <c r="F12" s="5" t="n">
-        <v>7.977620455451187</v>
+        <v>7.965135876268493</v>
       </c>
       <c r="G12" s="5" t="n">
-        <v>7.956898302966751</v>
+        <v>7.95771015907799</v>
       </c>
       <c r="H12" s="5" t="n">
-        <v>8.023247090686741</v>
+        <v>8.013716168006864</v>
       </c>
     </row>
     <row r="13">
@@ -866,7 +866,7 @@
         <v>7.680820637448769</v>
       </c>
       <c r="H13" s="5" t="n">
-        <v>8.070051179037366</v>
+        <v>8.070051179037364</v>
       </c>
     </row>
     <row r="14">
@@ -877,22 +877,22 @@
         </is>
       </c>
       <c r="C14" s="5" t="n">
-        <v>7.72874131046623</v>
+        <v>7.709106219923571</v>
       </c>
       <c r="D14" s="5" t="n">
-        <v>7.896452477458174</v>
+        <v>7.92266950494975</v>
       </c>
       <c r="E14" s="5" t="n">
-        <v>7.211266423414979</v>
+        <v>7.239251372673809</v>
       </c>
       <c r="F14" s="5" t="n">
-        <v>7.828146297853742</v>
+        <v>7.841881322696759</v>
       </c>
       <c r="G14" s="5" t="n">
-        <v>7.535440812265639</v>
+        <v>7.525797784560171</v>
       </c>
       <c r="H14" s="5" t="n">
-        <v>7.935831299930536</v>
+        <v>7.915051890891527</v>
       </c>
     </row>
     <row r="15">
@@ -903,22 +903,22 @@
         </is>
       </c>
       <c r="C15" s="5" t="n">
-        <v>8.111897600155126</v>
+        <v>8.09578460258164</v>
       </c>
       <c r="D15" s="5" t="n">
-        <v>8.28960272159992</v>
+        <v>8.309490018455586</v>
       </c>
       <c r="E15" s="5" t="n">
-        <v>7.660737090425816</v>
+        <v>7.681476808634591</v>
       </c>
       <c r="F15" s="5" t="n">
-        <v>8.161420768132414</v>
+        <v>8.157076183589213</v>
       </c>
       <c r="G15" s="5" t="n">
-        <v>7.831387763379979</v>
+        <v>7.827822551626891</v>
       </c>
       <c r="H15" s="5" t="n">
-        <v>8.185730569582855</v>
+        <v>8.180466732048387</v>
       </c>
     </row>
     <row r="16">
@@ -942,7 +942,7 @@
         <v>6.745962274396996</v>
       </c>
       <c r="F16" s="5" t="n">
-        <v>8.128837653841929</v>
+        <v>8.128837653841931</v>
       </c>
       <c r="G16" s="5" t="n">
         <v>6.866640272761655</v>
@@ -959,22 +959,22 @@
         </is>
       </c>
       <c r="C17" s="5" t="n">
-        <v>6.737820496137548</v>
+        <v>6.760553520852478</v>
       </c>
       <c r="D17" s="5" t="n">
-        <v>8.089254384735284</v>
+        <v>8.082022579777943</v>
       </c>
       <c r="E17" s="5" t="n">
-        <v>6.538694169603153</v>
+        <v>6.541402773312685</v>
       </c>
       <c r="F17" s="5" t="n">
-        <v>8.004134301358928</v>
+        <v>8.002398429271276</v>
       </c>
       <c r="G17" s="5" t="n">
-        <v>6.71132641841872</v>
+        <v>6.696505228672613</v>
       </c>
       <c r="H17" s="5" t="n">
-        <v>8.080361354863678</v>
+        <v>8.087524092370629</v>
       </c>
     </row>
     <row r="18">
@@ -985,22 +985,22 @@
         </is>
       </c>
       <c r="C18" s="5" t="n">
-        <v>7.222694703875536</v>
+        <v>7.226270836706172</v>
       </c>
       <c r="D18" s="5" t="n">
-        <v>8.355644467362835</v>
+        <v>8.367616239723761</v>
       </c>
       <c r="E18" s="5" t="n">
-        <v>6.958838896197921</v>
+        <v>6.957946880672826</v>
       </c>
       <c r="F18" s="5" t="n">
-        <v>8.254851904333176</v>
+        <v>8.241064672774288</v>
       </c>
       <c r="G18" s="5" t="n">
-        <v>7.012338415310989</v>
+        <v>7.006001799157781</v>
       </c>
       <c r="H18" s="5" t="n">
-        <v>8.2621185744733</v>
+        <v>8.26903262861096</v>
       </c>
     </row>
     <row r="19">
@@ -1024,7 +1024,7 @@
         <v>7.67784406070418</v>
       </c>
       <c r="F19" s="5" t="n">
-        <v>7.88848198784199</v>
+        <v>7.888481987841989</v>
       </c>
       <c r="G19" s="5" t="n">
         <v>7.851977160927271</v>
@@ -1041,22 +1041,22 @@
         </is>
       </c>
       <c r="C20" s="5" t="n">
-        <v>7.815923176143318</v>
+        <v>7.829054748375925</v>
       </c>
       <c r="D20" s="5" t="n">
-        <v>7.685827283004443</v>
+        <v>7.669603331940855</v>
       </c>
       <c r="E20" s="5" t="n">
-        <v>7.407440055960492</v>
+        <v>7.404324021119217</v>
       </c>
       <c r="F20" s="5" t="n">
-        <v>7.673715838377769</v>
+        <v>7.670939046162879</v>
       </c>
       <c r="G20" s="5" t="n">
-        <v>7.667417345671656</v>
+        <v>7.684173147510004</v>
       </c>
       <c r="H20" s="5" t="n">
-        <v>7.743061490858583</v>
+        <v>7.753038936967002</v>
       </c>
     </row>
     <row r="21">
@@ -1067,22 +1067,22 @@
         </is>
       </c>
       <c r="C21" s="5" t="n">
-        <v>8.243215718805757</v>
+        <v>8.23287266260081</v>
       </c>
       <c r="D21" s="5" t="n">
-        <v>8.120422959307867</v>
+        <v>8.121330873024096</v>
       </c>
       <c r="E21" s="5" t="n">
-        <v>7.903237501235482</v>
+        <v>7.927928910217384</v>
       </c>
       <c r="F21" s="5" t="n">
-        <v>8.072625106549774</v>
+        <v>8.083128777422919</v>
       </c>
       <c r="G21" s="5" t="n">
-        <v>7.999907834026931</v>
+        <v>8.020555047190957</v>
       </c>
       <c r="H21" s="5" t="n">
-        <v>8.040016908198984</v>
+        <v>8.050720022758478</v>
       </c>
     </row>
     <row r="22">
@@ -1106,7 +1106,7 @@
         <v>7.546506827793485</v>
       </c>
       <c r="F22" s="5" t="n">
-        <v>7.985207812252433</v>
+        <v>7.985207812252431</v>
       </c>
       <c r="G22" s="5" t="n">
         <v>7.642062561251109</v>
@@ -1123,22 +1123,22 @@
         </is>
       </c>
       <c r="C23" s="5" t="n">
-        <v>7.631704248374991</v>
+        <v>7.63340872931324</v>
       </c>
       <c r="D23" s="5" t="n">
-        <v>8.031350738959102</v>
+        <v>8.044383142254434</v>
       </c>
       <c r="E23" s="5" t="n">
-        <v>7.413053482317078</v>
+        <v>7.408239560495356</v>
       </c>
       <c r="F23" s="5" t="n">
-        <v>7.877649496999933</v>
+        <v>7.869959961074617</v>
       </c>
       <c r="G23" s="5" t="n">
-        <v>7.559776080742098</v>
+        <v>7.548856665789716</v>
       </c>
       <c r="H23" s="5" t="n">
-        <v>7.993690333740821</v>
+        <v>7.990622922421648</v>
       </c>
     </row>
     <row r="24">
@@ -1149,22 +1149,22 @@
         </is>
       </c>
       <c r="C24" s="5" t="n">
-        <v>7.860564005455432</v>
+        <v>7.849449343917154</v>
       </c>
       <c r="D24" s="5" t="n">
-        <v>8.31988592952683</v>
+        <v>8.328956733873589</v>
       </c>
       <c r="E24" s="5" t="n">
-        <v>7.660193336501749</v>
+        <v>7.667819059879086</v>
       </c>
       <c r="F24" s="5" t="n">
-        <v>8.098594140807847</v>
+        <v>8.088031064479015</v>
       </c>
       <c r="G24" s="5" t="n">
-        <v>7.720070495438927</v>
+        <v>7.724538892024192</v>
       </c>
       <c r="H24" s="5" t="n">
-        <v>8.170066571013889</v>
+        <v>8.172198095116279</v>
       </c>
     </row>
     <row r="25">
@@ -1182,13 +1182,13 @@
         <v>7.447776397898187</v>
       </c>
       <c r="D25" s="5" t="n">
-        <v>7.712932168861626</v>
+        <v>7.712932168861625</v>
       </c>
       <c r="E25" s="5" t="n">
         <v>7.18167144633442</v>
       </c>
       <c r="F25" s="5" t="n">
-        <v>7.143080638216941</v>
+        <v>7.143080638216943</v>
       </c>
       <c r="G25" s="5" t="n">
         <v>7.31094081062693</v>
@@ -1205,22 +1205,22 @@
         </is>
       </c>
       <c r="C26" s="5" t="n">
-        <v>7.347287586244573</v>
+        <v>7.34536888858942</v>
       </c>
       <c r="D26" s="5" t="n">
-        <v>7.578223422680022</v>
+        <v>7.583322242622303</v>
       </c>
       <c r="E26" s="5" t="n">
-        <v>7.079562566652698</v>
+        <v>7.056424936454644</v>
       </c>
       <c r="F26" s="5" t="n">
-        <v>7.017106756652089</v>
+        <v>7.036818214104726</v>
       </c>
       <c r="G26" s="5" t="n">
-        <v>7.234483336890049</v>
+        <v>7.234109719676304</v>
       </c>
       <c r="H26" s="5" t="n">
-        <v>7.320197667913692</v>
+        <v>7.329129493586566</v>
       </c>
     </row>
     <row r="27">
@@ -1231,22 +1231,22 @@
         </is>
       </c>
       <c r="C27" s="5" t="n">
-        <v>7.552134043005541</v>
+        <v>7.542873897143876</v>
       </c>
       <c r="D27" s="5" t="n">
-        <v>7.842349624334894</v>
+        <v>7.829410496705937</v>
       </c>
       <c r="E27" s="5" t="n">
-        <v>7.29546673794508</v>
+        <v>7.292756406236391</v>
       </c>
       <c r="F27" s="5" t="n">
-        <v>7.267729932385983</v>
+        <v>7.290092247074956</v>
       </c>
       <c r="G27" s="5" t="n">
-        <v>7.382221806117125</v>
+        <v>7.386790294609475</v>
       </c>
       <c r="H27" s="5" t="n">
-        <v>7.508278378796034</v>
+        <v>7.508802893883797</v>
       </c>
     </row>
     <row r="28">
@@ -1264,7 +1264,7 @@
         <v>7.687208783450733</v>
       </c>
       <c r="D28" s="5" t="n">
-        <v>8.136683293640823</v>
+        <v>8.136683293640822</v>
       </c>
       <c r="E28" s="5" t="n">
         <v>7.449478316325241</v>
@@ -1287,22 +1287,22 @@
         </is>
       </c>
       <c r="C29" s="5" t="n">
-        <v>7.636240797878489</v>
+        <v>7.631009050221135</v>
       </c>
       <c r="D29" s="5" t="n">
-        <v>8.073917671207742</v>
+        <v>8.077490670441184</v>
       </c>
       <c r="E29" s="5" t="n">
-        <v>7.390398829251279</v>
+        <v>7.388822329915494</v>
       </c>
       <c r="F29" s="5" t="n">
-        <v>7.851472356028464</v>
+        <v>7.850971594536617</v>
       </c>
       <c r="G29" s="5" t="n">
-        <v>7.526092579124516</v>
+        <v>7.524515001550536</v>
       </c>
       <c r="H29" s="5" t="n">
-        <v>7.977067147232067</v>
+        <v>7.9730144215483</v>
       </c>
     </row>
     <row r="30">
@@ -1313,22 +1313,22 @@
         </is>
       </c>
       <c r="C30" s="5" t="n">
-        <v>7.740885704474447</v>
+        <v>7.739655914160555</v>
       </c>
       <c r="D30" s="5" t="n">
-        <v>8.192722412892856</v>
+        <v>8.192624677428398</v>
       </c>
       <c r="E30" s="5" t="n">
-        <v>7.507693502597301</v>
+        <v>7.503282782828641</v>
       </c>
       <c r="F30" s="5" t="n">
-        <v>7.950273083764755</v>
+        <v>7.953747884755118</v>
       </c>
       <c r="G30" s="5" t="n">
-        <v>7.6077461089814</v>
+        <v>7.604388479578224</v>
       </c>
       <c r="H30" s="5" t="n">
-        <v>8.056200373501252</v>
+        <v>8.053218445052401</v>
       </c>
     </row>
     <row r="31">
